--- a/Exercises.xlsx
+++ b/Exercises.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="0" windowWidth="22280" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="0" windowWidth="23900" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>GitID</t>
   </si>
@@ -87,9 +87,6 @@
     <t> tomor14</t>
   </si>
   <si>
-    <t>Chapter 8</t>
-  </si>
-  <si>
     <t>8_6</t>
   </si>
   <si>
@@ -118,6 +115,18 @@
   </si>
   <si>
     <t>Regression chapter 5</t>
+  </si>
+  <si>
+    <t>Ross Chapter 8</t>
+  </si>
+  <si>
+    <t>Ross Chapter 11</t>
+  </si>
+  <si>
+    <t>8_7</t>
+  </si>
+  <si>
+    <t>8_14</t>
   </si>
 </sst>
 </file>
@@ -157,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,10 +199,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -202,6 +219,79 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>880534</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="4936067"/>
+          <a:ext cx="2573867" cy="1126067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>If your previous exercise submissions are not in this file, don't worry at all! The record completely exists in the history of the GitHub repository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,268 +616,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +919,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId22"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Exercises.xlsx
+++ b/Exercises.xlsx
@@ -189,9 +189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,13 +208,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -618,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -681,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -725,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -740,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -784,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -795,7 +799,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -842,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -853,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
